--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,70 +46,91 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>crap</t>
+    <t>waste</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>less</t>
@@ -118,135 +139,111 @@
     <t>di</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>tried</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>seem</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>sound</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>money</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>put</t>
   </si>
   <si>
-    <t>2</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -259,36 +256,33 @@
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -298,43 +292,34 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>fun</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -695,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -782,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3">
         <v>0.875</v>
@@ -814,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K4">
-        <v>0.7777777777777778</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7526881720430108</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K6">
-        <v>0.7076923076923077</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>0.6881720430107527</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7281553398058253</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7142857142857143</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,10 +1120,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K10">
-        <v>0.4057971014492754</v>
+        <v>0.4375</v>
       </c>
       <c r="L10">
         <v>28</v>
@@ -1156,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6554054054054054</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K11">
-        <v>0.3852459016393442</v>
+        <v>0.3680327868852459</v>
       </c>
       <c r="L11">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="M11">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1206,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>750</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1214,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6218487394957983</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C12">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1232,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>0.3371592539454806</v>
+        <v>0.3285509325681492</v>
       </c>
       <c r="L12">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M12">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1264,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6181818181818182</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1282,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K13">
-        <v>0.2780082987551867</v>
+        <v>0.3008298755186722</v>
       </c>
       <c r="L13">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M13">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1306,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1314,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6052631578947368</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1332,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14">
-        <v>0.275</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1356,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1364,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6041666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1382,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15">
-        <v>0.2289156626506024</v>
+        <v>0.25</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1406,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,10 +1402,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1432,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>0.2018348623853211</v>
@@ -1464,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1482,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>0.1746031746031746</v>
@@ -1514,38 +1499,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5428571428571428</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <v>0.1484375</v>
+      </c>
+      <c r="L18">
         <v>19</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>19</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <v>18</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1556,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1564,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5263157894736842</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1582,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K19">
-        <v>0.140625</v>
+        <v>0.112182296231376</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1606,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>110</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,38 +1599,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5172413793103449</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20">
+        <v>0.1048951048951049</v>
+      </c>
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20">
-        <v>0.1182795698924731</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1656,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1664,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5072463768115942</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C21">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1682,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K21">
-        <v>0.1048951048951049</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1706,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>128</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1735,16 +1720,16 @@
         <v>66</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <v>0.1008771929824561</v>
+        <v>0.05</v>
       </c>
       <c r="L22">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="M22">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="N22">
         <v>0.99</v>
@@ -1756,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1025</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1764,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4761904761904762</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1782,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K23">
-        <v>0.08433734939759036</v>
+        <v>0.04456824512534819</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1806,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>228</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1814,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4457831325301205</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1832,31 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>46</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24">
-        <v>0.06406685236768803</v>
-      </c>
-      <c r="L24">
-        <v>23</v>
-      </c>
-      <c r="M24">
-        <v>23</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>336</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1864,13 +1825,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4259259259259259</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1882,31 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>31</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25">
-        <v>0.03961038961038961</v>
-      </c>
-      <c r="L25">
-        <v>61</v>
-      </c>
-      <c r="M25">
-        <v>62</v>
-      </c>
-      <c r="N25">
-        <v>0.98</v>
-      </c>
-      <c r="O25">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1479</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1914,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4210526315789473</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1932,31 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>55</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26">
-        <v>0.03466666666666667</v>
-      </c>
-      <c r="L26">
-        <v>26</v>
-      </c>
-      <c r="M26">
-        <v>28</v>
-      </c>
-      <c r="N26">
-        <v>0.93</v>
-      </c>
-      <c r="O26">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>724</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1964,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3833333333333334</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1982,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,13 +1903,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2008,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2016,13 +1929,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3707865168539326</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2034,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2042,13 +1955,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3601895734597156</v>
+        <v>0.3359375</v>
       </c>
       <c r="C30">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2060,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2068,13 +1981,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3518518518518519</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2086,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2094,13 +2007,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3514851485148515</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C32">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2112,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>131</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2120,13 +2033,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.328125</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C33">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2138,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2146,13 +2059,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3076923076923077</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2164,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2172,13 +2085,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3061224489795918</v>
+        <v>0.28125</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2190,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2198,13 +2111,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3015873015873016</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2224,13 +2137,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2909090909090909</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2242,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2250,13 +2163,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2777777777777778</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2268,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2276,13 +2189,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2622950819672131</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2294,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2302,13 +2215,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2474226804123711</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2320,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2328,13 +2241,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2474226804123711</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2346,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2380,13 +2293,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2448979591836735</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2398,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>74</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2406,13 +2319,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2238805970149254</v>
+        <v>0.2310126582278481</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2424,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>52</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2432,13 +2345,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2162162162162162</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2450,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>58</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2458,13 +2371,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.213768115942029</v>
+        <v>0.1958456973293768</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2476,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>217</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2484,13 +2397,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2056962025316456</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C47">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2502,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>251</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2510,13 +2423,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2025316455696203</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C48">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2528,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2536,13 +2449,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1978021978021978</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2554,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2562,13 +2475,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1958456973293768</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C50">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2580,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>542</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2588,13 +2501,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1864406779661017</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2606,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2614,13 +2527,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.185</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D52">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2632,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>163</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2640,13 +2553,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1740088105726872</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C53">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D53">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2658,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2666,13 +2579,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1714285714285714</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2684,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2692,13 +2605,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1682242990654206</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2710,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2718,13 +2631,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1666666666666667</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2736,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2744,13 +2657,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1528662420382166</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2762,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2770,25 +2683,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1527377521613833</v>
+        <v>0.135</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D58">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>294</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2796,13 +2709,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1428571428571428</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2814,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>120</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2822,25 +2735,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1328125</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>111</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2848,13 +2761,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1169354838709677</v>
+        <v>0.1178082191780822</v>
       </c>
       <c r="C61">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D61">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2866,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>219</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2874,13 +2787,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1168831168831169</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2892,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2900,13 +2813,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1123595505617977</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2918,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>237</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2926,7 +2839,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1092896174863388</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="C64">
         <v>20</v>
@@ -2944,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2952,25 +2865,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.101063829787234</v>
+        <v>0.1003584229390681</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F65">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>169</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2978,25 +2891,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09375</v>
+        <v>0.1</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>18</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3004,25 +2917,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09340659340659341</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C67">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>330</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3030,25 +2943,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07692307692307693</v>
+        <v>0.07084019769357495</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E68">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>180</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3056,25 +2969,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07084019769357495</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>564</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3082,13 +2995,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.0623608017817372</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="C70">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3100,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3108,25 +3021,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06197183098591549</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>333</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3134,25 +3047,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.06018518518518518</v>
+        <v>0.05362776025236593</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>406</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3160,25 +3073,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.05696202531645569</v>
+        <v>0.04292929292929293</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>298</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3186,77 +3099,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0430379746835443</v>
+        <v>0.03215926493108729</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F74">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.04141104294478527</v>
-      </c>
-      <c r="C75">
-        <v>27</v>
-      </c>
-      <c r="D75">
-        <v>30</v>
-      </c>
-      <c r="E75">
-        <v>0.1</v>
-      </c>
-      <c r="F75">
-        <v>0.9</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.0351288056206089</v>
-      </c>
-      <c r="C76">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>17</v>
-      </c>
-      <c r="E76">
-        <v>0.12</v>
-      </c>
-      <c r="F76">
-        <v>0.88</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>412</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
